--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/短信内容/闲聊短信/凯瑟琳闲聊.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/短信内容/闲聊短信/凯瑟琳闲聊.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="24690" tabRatio="786" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12090" tabRatio="786" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="chat_kaiselin_1|加入STS" sheetId="1" r:id="rId1"/>
-    <sheet name="chat_kaiselin_2|关心自己身体" sheetId="3" r:id="rId2"/>
-    <sheet name="chat_kaiselin_3|漆异之的死亡" sheetId="4" r:id="rId3"/>
-    <sheet name="辅助表" sheetId="2" r:id="rId4"/>
+    <sheet name="chat_kaiselin_0|询问增强剂" sheetId="5" r:id="rId1"/>
+    <sheet name="chat_kaiselin_1|加入STS" sheetId="1" r:id="rId2"/>
+    <sheet name="chat_kaiselin_2|关心自己身体" sheetId="3" r:id="rId3"/>
+    <sheet name="chat_kaiselin_3|漆异之的死亡" sheetId="4" r:id="rId4"/>
+    <sheet name="chat_kaiselin_4|关于过敏孩子的后续" sheetId="6" r:id="rId5"/>
+    <sheet name="辅助表" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'chat_kaiselin_1|加入STS'!$A$1:$H$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'chat_kaiselin_2|关心自己身体'!$A$1:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chat_kaiselin_3|漆异之的死亡'!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'chat_kaiselin_0|询问增强剂'!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'chat_kaiselin_1|加入STS'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chat_kaiselin_2|关心自己身体'!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'chat_kaiselin_3|漆异之的死亡'!$A$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'chat_kaiselin_4|关于过敏孩子的后续'!$A$1:$H$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -195,8 +199,122 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜规则，组必须等到文本结束才算开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuweiguang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空项和0,都视为0
+组号，写G或者g，都算一组的开始
+G:aaa 带有名字的组号
+例如填了个1.5，指的是从本组组号开始，到1.5秒后执行动作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜规则，组必须等到文本结束才算开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuweiguang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空项和0,都视为0
+组号，写G或者g，都算一组的开始
+G:aaa 带有名字的组号
+例如填了个1.5，指的是从本组组号开始，到1.5秒后执行动作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="189">
   <si>
     <t>说明</t>
   </si>
@@ -216,7 +334,7 @@
     <t>参数3</t>
   </si>
   <si>
-    <t>辅助表!AA2&gt;&gt;:$AH$500</t>
+    <t>辅助表!AA1:$AH$500</t>
   </si>
   <si>
     <t>ID</t>
@@ -258,7 +376,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>加入STS</t>
+    <t>关心自己身体</t>
   </si>
   <si>
     <t>角色台词</t>
@@ -267,7 +385,7 @@
     <t>wo</t>
   </si>
   <si>
-    <t>凯瑟琳是怎么加入STS的呢？</t>
+    <t>一直想问，稳定剂是什么呢？</t>
   </si>
   <si>
     <t>1&gt;&gt;</t>
@@ -276,10 +394,131 @@
     <t>kaiselin</t>
   </si>
   <si>
-    <t>嗯……跟杜博士的缘分吧。</t>
+    <t>你知道我们超感者是通过意识来控制异质物的吧？</t>
   </si>
   <si>
     <t>可选对话框</t>
+  </si>
+  <si>
+    <t>$$杜博士有讲过。==&gt;有说过</t>
+  </si>
+  <si>
+    <t>有说过</t>
+  </si>
+  <si>
+    <t>杜博士有讲过。</t>
+  </si>
+  <si>
+    <t>人类的精神力强度不够，所以需要特殊手段提高阈值。</t>
+  </si>
+  <si>
+    <t>2.5&gt;&gt;</t>
+  </si>
+  <si>
+    <t>但即使是这样，也会在控制过程中牺牲一部分理性。</t>
+  </si>
+  <si>
+    <t>$$原来如此==&gt;原来如此</t>
+  </si>
+  <si>
+    <t>原来如此</t>
+  </si>
+  <si>
+    <t>原来如此，所以每次战斗前都需要使用……</t>
+  </si>
+  <si>
+    <t>嗯，会大量消耗，而且副作用不少。</t>
+  </si>
+  <si>
+    <t>之前我们一直在为产能头疼呢~</t>
+  </si>
+  <si>
+    <t>$$现在问题解决了？==&gt;现在问题
+$$好像还有别的作用？==&gt;好像还有</t>
+  </si>
+  <si>
+    <t>现在问题</t>
+  </si>
+  <si>
+    <t>现在问题解决了？</t>
+  </si>
+  <si>
+    <t>我们现在只需要听从你的指令就好，当然不用依赖稳定剂了。</t>
+  </si>
+  <si>
+    <t>$$啊哈哈，很高兴能帮到大家==&gt;高兴</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>啊哈哈，很高兴能帮到大家。</t>
+  </si>
+  <si>
+    <t>跳转-标签</t>
+  </si>
+  <si>
+    <t>分支结束</t>
+  </si>
+  <si>
+    <t>好像还有</t>
+  </si>
+  <si>
+    <t>好像还有别的作用？</t>
+  </si>
+  <si>
+    <t>你用探索装置一样也需要啊。</t>
+  </si>
+  <si>
+    <t>$$对哦==&gt;对</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>对哦。</t>
+  </si>
+  <si>
+    <t>你对这类药剂的耐受还真好呢。</t>
+  </si>
+  <si>
+    <t>1.5&gt;&gt;</t>
+  </si>
+  <si>
+    <t>所以，要不要……再顺便帮帮别的忙？</t>
+  </si>
+  <si>
+    <t>比如……</t>
+  </si>
+  <si>
+    <t>$$算了！==&gt;算了</t>
+  </si>
+  <si>
+    <t>算了</t>
+  </si>
+  <si>
+    <t>啊我手机要没电了！</t>
+  </si>
+  <si>
+    <t>我们下次再聊吧！</t>
+  </si>
+  <si>
+    <t>哼~</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>辅助表!AA2&gt;&gt;:$AH$500</t>
+  </si>
+  <si>
+    <t>加入STS</t>
+  </si>
+  <si>
+    <t>凯瑟琳是怎么加入STS的呢？</t>
+  </si>
+  <si>
+    <t>嗯……跟杜博士的缘分吧。</t>
   </si>
   <si>
     <t>$$什么样的缘分？==&gt;缘分
@@ -296,6 +535,15 @@
   </si>
   <si>
     <t>秘密。</t>
+  </si>
+  <si>
+    <t>$$想知道。==&gt;知道</t>
+  </si>
+  <si>
+    <t>知道</t>
+  </si>
+  <si>
+    <t>想知道。</t>
   </si>
   <si>
     <t>2&gt;&gt;</t>
@@ -325,12 +573,6 @@
     <t>所以凯瑟琳之前也从事异质物相关工作？</t>
   </si>
   <si>
-    <t>$$而且你的外貌特征……是G国人吗？==&gt;外貌特征</t>
-  </si>
-  <si>
-    <t>外貌特征</t>
-  </si>
-  <si>
     <t>而且你的外貌特征……是G国人吗？</t>
   </si>
   <si>
@@ -338,9 +580,6 @@
   </si>
   <si>
     <t>不要随便打听女孩子的过往。</t>
-  </si>
-  <si>
-    <t>分支结束</t>
   </si>
   <si>
     <t>好吧……以后的工作还请多多指教。</t>
@@ -382,22 +621,17 @@
     <t>暂时没有兴趣！！</t>
   </si>
   <si>
-    <t>结束</t>
+    <t>有空的时候，来医务室做复检~</t>
   </si>
   <si>
-    <t>辅助表!AA1:$AH$500</t>
+    <t>$$好的==&gt;好的
+$$我身体有状况！？==&gt;状况</t>
   </si>
   <si>
-    <t>关心自己身体</t>
-  </si>
-  <si>
-    <t>我受到404污染后，会不会有后遗症啊？</t>
+    <t>好的</t>
   </si>
   <si>
     <t>你的身体指标已经完全没问题了。</t>
-  </si>
-  <si>
-    <t>2.5&gt;&gt;</t>
   </si>
   <si>
     <t>真想看看其他反应呢~</t>
@@ -412,13 +646,46 @@
     <t>其他……反应？</t>
   </si>
   <si>
+    <t>状况</t>
+  </si>
+  <si>
+    <t>我身体有状况！？</t>
+  </si>
+  <si>
+    <t>从之前的结果看，问题不大。</t>
+  </si>
+  <si>
+    <t>所以迫不及待想要跟你合作呢~</t>
+  </si>
+  <si>
+    <t>$$呃，是什么合作呢？==&gt;合作</t>
+  </si>
+  <si>
+    <t>合作</t>
+  </si>
+  <si>
+    <t>呃，是什么合作呢？</t>
+  </si>
+  <si>
     <t>我新研发的药，进入临床一期了，需要实验者。</t>
   </si>
   <si>
     <t>你要来试试吗？</t>
   </si>
   <si>
-    <t>一种新型致幻剂，能让你非常快乐~</t>
+    <t>一种促进内啡肽分泌的药剂，能让你非常快乐~</t>
+  </si>
+  <si>
+    <t>$$？？？==&gt;？</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>经费很充足哦，你不考虑看看吗？</t>
   </si>
   <si>
     <t>$$为什么非要找我啊喂！==&gt;非要找我</t>
@@ -454,13 +721,26 @@
     <t>漆异之的死亡</t>
   </si>
   <si>
-    <t>你怎么看漆异之的死亡？</t>
+    <t>你怎么看漆异之的死？</t>
   </si>
   <si>
-    <t>其实……我倒觉得不太像是异质物干的。</t>
+    <t>$$感觉不太像那个异质物干的==&gt;感觉
+$$没什么头绪，你呢？==&gt;你呢</t>
   </si>
   <si>
-    <t>1.5&gt;&gt;</t>
+    <t>感觉</t>
+  </si>
+  <si>
+    <t>我觉得不太像遇到的那个异质物干的。</t>
+  </si>
+  <si>
+    <t>我也是这么想。</t>
+  </si>
+  <si>
+    <t>你呢</t>
+  </si>
+  <si>
+    <t>没什么头绪，你呢？</t>
   </si>
   <si>
     <t>他身上有一些针孔，是更早之前的。</t>
@@ -493,6 +773,106 @@
     <t>看起来简直跟意外一样……</t>
   </si>
   <si>
+    <t>缺失的信息有点多，再继续调查吧。</t>
+  </si>
+  <si>
+    <t>加油呀队长~</t>
+  </si>
+  <si>
+    <t>关于过敏孩子的后续</t>
+  </si>
+  <si>
+    <t>那个小女孩后来没事吗？</t>
+  </si>
+  <si>
+    <t>嗯？我跟土山去医院看过她了，给她带了很多新玩具和零食~</t>
+  </si>
+  <si>
+    <t>明天她就该出院了。我们也警告过那对父母。</t>
+  </si>
+  <si>
+    <t>不过能起多少作用就难说了。</t>
+  </si>
+  <si>
+    <t>$$你们也不叫我！==&gt;叫
+$$事情总算圆满解决了~==&gt;解决</t>
+  </si>
+  <si>
+    <t>你们也不叫我！</t>
+  </si>
+  <si>
+    <t>你不是忙着整备新异质物么~队长大人~</t>
+  </si>
+  <si>
+    <t>去去去，我可不受用这套。</t>
+  </si>
+  <si>
+    <t>嘁~</t>
+  </si>
+  <si>
+    <t>$$不聊了再见==&gt;再见</t>
+  </si>
+  <si>
+    <t>再见</t>
+  </si>
+  <si>
+    <t>我还得帮杜博士录入土山的入职材料，回聊。</t>
+  </si>
+  <si>
+    <t>哼哼。</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>事情总算圆满解决了~</t>
+  </si>
+  <si>
+    <t>嗯哼~</t>
+  </si>
+  <si>
+    <t>不过医疗记录描述，那种过敏反应就好像全身每个细胞都要燃烧起来一样……</t>
+  </si>
+  <si>
+    <t>被异质物放大了心灵恐惧导致的过敏还真是少见呢。</t>
+  </si>
+  <si>
+    <t>下次我一定要复现一下。</t>
+  </si>
+  <si>
+    <t>真是……</t>
+  </si>
+  <si>
+    <t>好奇那种滋味啊……</t>
+  </si>
+  <si>
+    <t>$$你真是够了……==&gt;够了</t>
+  </si>
+  <si>
+    <t>够了</t>
+  </si>
+  <si>
+    <t>你真是够了……</t>
+  </si>
+  <si>
+    <t>我不用脑补都知道你现在什么样……</t>
+  </si>
+  <si>
+    <t>求求你正常一点。</t>
+  </si>
+  <si>
+    <t>我最正常的时候就是做药物试验的时候。</t>
+  </si>
+  <si>
+    <t>你这么喜欢的话，那不如……</t>
+  </si>
+  <si>
+    <t>$$怎么又来了！停！……==&gt;停！</t>
+  </si>
+  <si>
+    <t>怎么又来了！停！</t>
+  </si>
+  <si>
     <t>说明文档位置</t>
   </si>
   <si>
@@ -513,12 +893,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +946,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -574,22 +960,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,21 +974,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,19 +1019,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,9 +1035,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +1061,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,35 +1082,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -778,79 +1164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,31 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,7 +1236,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +1308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,6 +1368,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -992,6 +1393,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,54 +1454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1086,10 +1472,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,133 +1484,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1237,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1328,6 +1714,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1337,20 +1726,20 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1362,10 +1751,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1377,10 +1766,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1391,25 +1780,16 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2632,12 +3012,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2676,7 +3056,7 @@
       <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
@@ -2685,26 +3065,41 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="20" t="str">
-        <f ca="1">INDEX($D$5:$D$860,CELL("row")-4)</f>
-        <v>可选对话框</v>
-      </c>
-      <c r="E2" s="21" t="e">
+        <f ca="1">INDEX($D$5:$D$851,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="21" t="e">
+        <v>npc_meiluni
+【行为主体，NPC别名，在角色表中配置】</v>
+      </c>
+      <c r="F2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="22" t="e">
+        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
+【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
+【命令用{}括起】
+【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
+【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
+【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
+【s代表文字速度，原speed，数值越小越快】
+【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
+【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
+【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
+</v>
+      </c>
+      <c r="G2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="22" t="e">
+        <v>rui_01
+【语音文件的名字】</v>
+      </c>
+      <c r="H2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="34" t="s">
+        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
+recall=1,scale=1.3,rotate=30
+【recall代表文字居中，默认是左对齐】
+【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2788,500 +3183,423 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="33">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A46" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="39"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="33">
-        <f t="shared" ref="A7:A16" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" ht="47" customHeight="1" spans="1:6">
       <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="35" customFormat="1" ht="27" customHeight="1" spans="1:10">
-      <c r="A9" s="40">
+    <row r="9" ht="25" customHeight="1" spans="1:6">
+      <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="58"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="44"/>
-    </row>
-    <row r="11" s="36" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A11" s="45">
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" s="36" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A12" s="45">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45" t="s">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" s="36" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A13" s="45">
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45" t="s">
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" s="36" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A14" s="45">
-        <f>ROW()-6</f>
+      <c r="F13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:6">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" s="36" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A15" s="45">
-        <f t="shared" ref="A15:A20" si="1">ROW()-6</f>
-        <v>9</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45" t="s">
+      <c r="F17" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1" spans="1:6">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="33">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A17" s="50">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="60"/>
-    </row>
-    <row r="18" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A18" s="50">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50" t="s">
+      <c r="F19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="60"/>
-    </row>
-    <row r="19" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A19" s="50">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="50" t="s">
+      <c r="F21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="60"/>
-    </row>
-    <row r="20" s="37" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A20" s="50">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50" t="s">
+      <c r="F22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="47" customHeight="1" spans="1:6">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="60"/>
-    </row>
-    <row r="21" s="37" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A21" s="50">
-        <f t="shared" ref="A21:A28" si="2">ROW()-6</f>
-        <v>15</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="60"/>
-    </row>
-    <row r="22" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A22" s="50">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50" t="s">
+      <c r="F23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="60"/>
-    </row>
-    <row r="23" s="37" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A23" s="50">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="60"/>
-    </row>
-    <row r="24" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A24" s="50">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="60"/>
-    </row>
-    <row r="25" s="37" customFormat="1" ht="13.5" spans="1:10">
-      <c r="A25" s="50">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="50" t="s">
+      <c r="F25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="60"/>
-    </row>
-    <row r="26" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A26" s="50">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="50" t="s">
+      <c r="B28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="60"/>
-    </row>
-    <row r="27" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A27" s="50">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="60"/>
-    </row>
-    <row r="28" s="37" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A28" s="50">
-        <f t="shared" si="2"/>
+      <c r="E29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="J28" s="60"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="33">
-        <f t="shared" ref="A28:A33" si="3">ROW()-6</f>
-        <v>23</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="15"/>
+      <c r="F29" s="34" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" customHeight="1" spans="1:6">
       <c r="A30" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="1:6">
       <c r="A31" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:6">
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
       <c r="A33" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>27</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:6">
       <c r="A34" s="33">
-        <f t="shared" ref="A34:A43" si="4">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -3293,61 +3611,49 @@
       <c r="E34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" s="38" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A35" s="55">
-        <f t="shared" si="4"/>
+      <c r="F34" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="33">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="J35" s="61"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:6">
+      <c r="D35" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:6">
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>55</v>
-      </c>
+      <c r="B37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>21</v>
@@ -3355,69 +3661,184 @@
       <c r="E38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" s="38" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A39" s="55">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="57"/>
-      <c r="J39" s="61"/>
     </row>
     <row r="40" customHeight="1" spans="1:6">
       <c r="A40" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:6">
-      <c r="A41" s="33">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="D41" s="33" t="s">
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F42" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:2">
-      <c r="A42" s="33">
-        <f>ROW()-6</f>
-        <v>36</v>
-      </c>
-      <c r="B42" s="10" t="s">
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="33">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="33">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:1">
+      <c r="A45" s="33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="33">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="33"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="33"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="33"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="33"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="33"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="33"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="33"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="33"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="33"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="33"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="33"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="33"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="33"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="33"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="33"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="33"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H42">
+  <autoFilter ref="A1:H67">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D12 D13 D14 D15 D16 D20 D21 D22 D23 D24 D25 D26 D27 D28 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D6:D8 D10:D11 D17:D19 D29:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D11 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D9:D10 D12:D13 D14:D15">
       <formula1>辅助表!$D$6:$D$74</formula1>
     </dataValidation>
   </dataValidations>
@@ -3431,12 +3852,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3475,7 +3896,7 @@
       <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
@@ -3483,43 +3904,28 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20" t="str">
-        <f ca="1">INDEX($D$5:$D$833,CELL("row")-4)</f>
-        <v>角色台词</v>
-      </c>
-      <c r="E2" s="21" t="str">
+      <c r="D2" s="20">
+        <f ca="1">INDEX($D$5:$D$861,CELL("row")-4)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>npc_meiluni
-【行为主体，NPC别名，在角色表中配置】</v>
-      </c>
-      <c r="F2" s="21" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="21" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
-【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
-【命令用{}括起】
-【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
-【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
-【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
-【s代表文字速度，原speed，数值越小越快】
-【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
-【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
-【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
-</v>
-      </c>
-      <c r="G2" s="22" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>rui_01
-【语音文件的名字】</v>
-      </c>
-      <c r="H2" s="22" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="22" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
-recall=1,scale=1.3,rotate=30
-【recall代表文字居中，默认是左对齐】
-【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>62</v>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -3602,18 +4008,19 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="33">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A45" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="33">
-        <f t="shared" ref="A7:A16" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -3622,8 +4029,8 @@
       <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>64</v>
+      <c r="F7" s="40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -3640,418 +4047,586 @@
       <c r="E8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
+      <c r="F8" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="27" customHeight="1" spans="1:10">
       <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:2">
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" s="37" customFormat="1" customHeight="1" spans="1:10">
       <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" s="37" customFormat="1" customHeight="1" spans="1:10">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
+      <c r="G12" s="48"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" s="37" customFormat="1" customHeight="1" spans="1:10">
       <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="B13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
+      <c r="F13" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" s="38" customFormat="1" customHeight="1" spans="1:10">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" s="37" customFormat="1" customHeight="1" spans="1:10">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" s="37" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" s="37" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" s="37" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="33">
-        <f t="shared" ref="A17:A26" si="1">ROW()-6</f>
-        <v>11</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="33">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F21" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="33">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" s="39" customFormat="1" ht="11.25" spans="1:10">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" s="39" customFormat="1" ht="11.25" spans="1:10">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="53"/>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" s="39" customFormat="1" ht="11.25" spans="1:10">
+      <c r="A26" s="33">
+        <f>ROW()-6</f>
+        <v>20</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A27" s="33">
+        <f>ROW()-6</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A28" s="33">
+        <f>ROW()-6</f>
+        <v>22</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E28" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="33">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="F28" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="53"/>
+      <c r="J28" s="59"/>
+    </row>
+    <row r="29" s="39" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A29" s="33">
+        <f>ROW()-6</f>
+        <v>23</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="33">
+        <f>ROW()-6</f>
         <v>24</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="33">
+        <f>ROW()-6</f>
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="33">
+        <f>ROW()-6</f>
+        <v>26</v>
+      </c>
+      <c r="D32" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="33">
+        <f>ROW()-6</f>
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="33">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="F33" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" spans="1:6">
+      <c r="A34" s="33">
+        <f>ROW()-6</f>
+        <v>28</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="33">
+        <f>ROW()-6</f>
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="33">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="F35" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" s="38" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A36" s="33">
+        <f>ROW()-6</f>
+        <v>30</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="33">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="33">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="D24" s="33" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="33">
+        <f>ROW()-6</f>
+        <v>31</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="33">
+        <f>ROW()-6</f>
+        <v>32</v>
+      </c>
+      <c r="D38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="33">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="33" t="s">
+      <c r="F38" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="33">
+        <f>ROW()-6</f>
+        <v>33</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="33">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="33">
-        <f t="shared" ref="A27:A36" si="2">ROW()-6</f>
+      <c r="F39" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" s="38" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A40" s="33">
+        <f>ROW()-6</f>
+        <v>34</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="J40" s="58"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="33">
+        <f>ROW()-6</f>
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="33">
+        <f>ROW()-6</f>
+        <v>36</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="33">
-        <f t="shared" si="2"/>
+      <c r="E42" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="33">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="33">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="33">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="33">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="33">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="33">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="33">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="33">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="33">
-        <f t="shared" ref="A37:A49" si="3">ROW()-6</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="33">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="33">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="33">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="33">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="33">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
+      <c r="F42" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="33">
-        <f t="shared" si="3"/>
+        <f>ROW()-6</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="33">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="33">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="33">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="33">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="33">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="33">
-        <f t="shared" si="3"/>
-        <v>43</v>
+      <c r="B43" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15">
+  <autoFilter ref="A1:H43">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12 D13 D14 D15 D16 D18 D19 D20 D21 D22 D24 D25 D6:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D12 D13 D14 D15 D16 D17 D18 D19 D23 D24 D25 D26 D27 D28 D29 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D6:D8 D10:D11 D20:D22 D30:D33">
       <formula1>辅助表!$D$6:$D$74</formula1>
     </dataValidation>
   </dataValidations>
@@ -4065,12 +4640,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -4109,7 +4684,7 @@
       <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
@@ -4117,28 +4692,43 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="20">
-        <f ca="1">INDEX($D$5:$D$834,CELL("row")-4)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="21" t="e">
+      <c r="D2" s="20" t="str">
+        <f ca="1">INDEX($D$5:$D$851,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="21" t="e">
+        <v>npc_meiluni
+【行为主体，NPC别名，在角色表中配置】</v>
+      </c>
+      <c r="F2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="22" t="e">
+        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
+【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
+【命令用{}括起】
+【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
+【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
+【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
+【s代表文字速度，原speed，数值越小越快】
+【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
+【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
+【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
+</v>
+      </c>
+      <c r="G2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="22" t="e">
+        <v>rui_01
+【语音文件的名字】</v>
+      </c>
+      <c r="H2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>62</v>
+        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
+recall=1,scale=1.3,rotate=30
+【recall代表文字居中，默认是左对齐】
+【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -4223,80 +4813,66 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="33">
-        <f t="shared" ref="A6:A28" si="0">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7:A16" si="0">ROW()-6</f>
         <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" ht="47" customHeight="1" spans="1:6">
       <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" ht="47" customHeight="1" spans="1:2">
       <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:6">
       <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -4304,21 +4880,35 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:6">
@@ -4327,31 +4917,20 @@
         <v>7</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="1:2">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:6">
@@ -4359,17 +4938,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="D15" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:6">
@@ -4378,107 +4954,490 @@
         <v>10</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A17:A33" si="1">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="33">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="33">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="D20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="33">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:1">
-      <c r="A23" s="33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="33">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
+      <c r="F24" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
       <c r="A25" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
+      <c r="D25" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:1">
+      <c r="B26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
       <c r="A27" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
+      <c r="B27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
       <c r="A28" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="B28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="33">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="33">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="33">
+        <f t="shared" ref="A34:A46" si="2">ROW()-6</f>
+        <v>28</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="33">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="33">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="33">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="33">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="33">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="33">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="33">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:1">
+      <c r="A44" s="33">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="33">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:1">
+      <c r="A46" s="33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="33"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="33"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" s="33"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="33"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="33"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="33"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="33"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="33"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="33"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="33"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="33"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="33"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="33"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="33"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="33"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16">
+  <autoFilter ref="A1:H67">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D16 D18 D6:D12 D14:D15">
-      <formula1>辅助表!$D$6:$D$67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D15 D19 D24 D25 D26 D27 D28 D29 D30 D32 D33 D34 D36 D37 D38 D39 D40 D42 D43 D8:D9 D11:D14 D16:D18 D20:D21 D22:D23">
+      <formula1>辅助表!$D$6:$D$74</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4489,6 +5448,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20" t="str">
+        <f ca="1">INDEX($D$5:$D$844,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v>npc_meiluni
+【行为主体，NPC别名，在角色表中配置】</v>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
+【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
+【命令用{}括起】
+【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
+【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
+【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
+【s代表文字速度，原speed，数值越小越快】
+【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
+【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
+【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
+</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>rui_01
+【语音文件的名字】</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
+recall=1,scale=1.3,rotate=30
+【recall代表文字居中，默认是左对齐】
+【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="33">
+        <f>ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="33">
+        <f t="shared" ref="A7:A16" si="0">ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="1:6">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="33">
+        <f t="shared" ref="A17:A26" si="1">ROW()-6</f>
+        <v>11</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="33">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="33">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="1:6">
+      <c r="A22" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="33">
+        <f t="shared" ref="A27:A38" si="2">ROW()-6</f>
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="33">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:1">
+      <c r="A31" s="33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:1">
+      <c r="A33" s="33"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:1">
+      <c r="A34" s="33"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:1">
+      <c r="A35" s="33"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:1">
+      <c r="A36" s="33"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:1">
+      <c r="A37" s="33"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:1">
+      <c r="A38" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H38">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D11 D14 D19 D20 D23 D26 D28 D29 D30 D21:D22 D24:D25">
+      <formula1>辅助表!$D$6:$D$67</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D12 D15 D16 D8:D9 D17:D18">
+      <formula1>辅助表!$D$6:$D$74</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20" t="str">
+        <f ca="1">INDEX($D$5:$D$869,CELL("row")-4)</f>
+        <v>可选对话框</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>(ri_goldenKey&gt;0)$$条件触发项 ==&gt;后续一
+()$$某某某==&gt;无条件触发项
+ri_:调查模块item。rqs_:任务状态 0未接 1已接 2 已完成。
+rqp_:任务进度 。无前缀: 自定义值。
+如果param2不填且param3不填，()※※某某某==&gt;xxx的意思为"读两次某某某则某某某选项消失"</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>如果不填且param3不填，则已读选项有已读标识
+如果填1，则已读选项和※的规则无效</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>type=0
+【type表示类型，默认0是普通选择框，1是推理选择框，2是手机下的可选对话框】</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="33">
+        <f t="shared" ref="A6:A42" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" ht="47" customHeight="1" spans="1:6">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="1:6">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" ht="47" customHeight="1" spans="1:6">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:6">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="33">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="33">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="33">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="33"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="33"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="33"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="33"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="33"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="33"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="33"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:1">
+      <c r="A68" s="33"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="33"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="33"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="33"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="33"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:1">
+      <c r="A73" s="33"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="33"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:1">
+      <c r="A75" s="33"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:1">
+      <c r="A76" s="33"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:1">
+      <c r="A77" s="33"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:1">
+      <c r="A78" s="33"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:1">
+      <c r="A79" s="33"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:1">
+      <c r="A80" s="33"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" s="33"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:1">
+      <c r="A82" s="33"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="33"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="33"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:1">
+      <c r="A85" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H85">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D8 D9 D10 D13 D16 D17 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D33 D34 D35 D36 D37 D40 D41 D44 D45 D46 D47 D48 D50 D51 D52 D54 D55 D56 D57 D58 D60 D61 D11:D12 D14:D15 D25:D26 D31:D32 D38:D39 D42:D43">
+      <formula1>辅助表!$D$6:$D$74</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AM202"/>
@@ -4518,13 +6998,13 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AA1" s="2" t="str">
         <f>IF([1]AVG指令文档!D4&lt;&gt;0,[1]AVG指令文档!D4,"")</f>
@@ -4589,10 +7069,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([1]AVG指令文档!D5&lt;&gt;0,[1]AVG指令文档!D5,"")</f>
@@ -4651,7 +7131,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
